--- a/金融/模拟投资组合-机器学习模型-选股/LSTM-预测结果.xlsx
+++ b/金融/模拟投资组合-机器学习模型-选股/LSTM-预测结果.xlsx
@@ -28,604 +28,604 @@
     <t>综合得分</t>
   </si>
   <si>
-    <t>603291.SH</t>
-  </si>
-  <si>
-    <t>688231.SH</t>
-  </si>
-  <si>
-    <t>600803.SH</t>
+    <t>601229.SH</t>
+  </si>
+  <si>
+    <t>601658.SH</t>
+  </si>
+  <si>
+    <t>002003.SZ</t>
+  </si>
+  <si>
+    <t>000782.SZ</t>
+  </si>
+  <si>
+    <t>600889.SH</t>
+  </si>
+  <si>
+    <t>600032.SH</t>
+  </si>
+  <si>
+    <t>002025.SZ</t>
+  </si>
+  <si>
+    <t>301028.SZ</t>
+  </si>
+  <si>
+    <t>002839.SZ</t>
+  </si>
+  <si>
+    <t>600435.SH</t>
+  </si>
+  <si>
+    <t>000793.SZ</t>
+  </si>
+  <si>
+    <t>300652.SZ</t>
+  </si>
+  <si>
+    <t>300317.SZ</t>
+  </si>
+  <si>
+    <t>603179.SH</t>
+  </si>
+  <si>
+    <t>000637.SZ</t>
+  </si>
+  <si>
+    <t>603299.SH</t>
+  </si>
+  <si>
+    <t>002468.SZ</t>
+  </si>
+  <si>
+    <t>688143.SH</t>
+  </si>
+  <si>
+    <t>301269.SZ</t>
+  </si>
+  <si>
+    <t>603055.SH</t>
+  </si>
+  <si>
+    <t>601006.SH</t>
+  </si>
+  <si>
+    <t>688073.SH</t>
+  </si>
+  <si>
+    <t>600489.SH</t>
+  </si>
+  <si>
+    <t>300497.SZ</t>
+  </si>
+  <si>
+    <t>600089.SH</t>
+  </si>
+  <si>
+    <t>600658.SH</t>
+  </si>
+  <si>
+    <t>002185.SZ</t>
+  </si>
+  <si>
+    <t>600787.SH</t>
+  </si>
+  <si>
+    <t>002864.SZ</t>
+  </si>
+  <si>
+    <t>000830.SZ</t>
+  </si>
+  <si>
+    <t>300337.SZ</t>
+  </si>
+  <si>
+    <t>300712.SZ</t>
+  </si>
+  <si>
+    <t>600508.SH</t>
+  </si>
+  <si>
+    <t>002550.SZ</t>
+  </si>
+  <si>
+    <t>301525.SZ</t>
+  </si>
+  <si>
+    <t>300012.SZ</t>
+  </si>
+  <si>
+    <t>002338.SZ</t>
+  </si>
+  <si>
+    <t>001360.SZ</t>
+  </si>
+  <si>
+    <t>688575.SH</t>
+  </si>
+  <si>
+    <t>002501.SZ</t>
+  </si>
+  <si>
+    <t>002545.SZ</t>
+  </si>
+  <si>
+    <t>301119.SZ</t>
+  </si>
+  <si>
+    <t>002142.SZ</t>
+  </si>
+  <si>
+    <t>301306.SZ</t>
+  </si>
+  <si>
+    <t>300979.SZ</t>
+  </si>
+  <si>
+    <t>603889.SH</t>
+  </si>
+  <si>
+    <t>000960.SZ</t>
+  </si>
+  <si>
+    <t>300532.SZ</t>
+  </si>
+  <si>
+    <t>002234.SZ</t>
+  </si>
+  <si>
+    <t>300772.SZ</t>
+  </si>
+  <si>
+    <t>300698.SZ</t>
+  </si>
+  <si>
+    <t>300745.SZ</t>
+  </si>
+  <si>
+    <t>300516.SZ</t>
+  </si>
+  <si>
+    <t>002422.SZ</t>
+  </si>
+  <si>
+    <t>600496.SH</t>
+  </si>
+  <si>
+    <t>600398.SH</t>
+  </si>
+  <si>
+    <t>688022.SH</t>
+  </si>
+  <si>
+    <t>688347.SH</t>
+  </si>
+  <si>
+    <t>300397.SZ</t>
+  </si>
+  <si>
+    <t>688126.SH</t>
+  </si>
+  <si>
+    <t>300721.SZ</t>
+  </si>
+  <si>
+    <t>600820.SH</t>
+  </si>
+  <si>
+    <t>301226.SZ</t>
+  </si>
+  <si>
+    <t>301193.SZ</t>
+  </si>
+  <si>
+    <t>301309.SZ</t>
+  </si>
+  <si>
+    <t>600694.SH</t>
+  </si>
+  <si>
+    <t>600064.SH</t>
+  </si>
+  <si>
+    <t>002244.SZ</t>
+  </si>
+  <si>
+    <t>688468.SH</t>
+  </si>
+  <si>
+    <t>603690.SH</t>
+  </si>
+  <si>
+    <t>600460.SH</t>
+  </si>
+  <si>
+    <t>300218.SZ</t>
+  </si>
+  <si>
+    <t>002438.SZ</t>
+  </si>
+  <si>
+    <t>000906.SZ</t>
+  </si>
+  <si>
+    <t>000551.SZ</t>
+  </si>
+  <si>
+    <t>603589.SH</t>
+  </si>
+  <si>
+    <t>300855.SZ</t>
+  </si>
+  <si>
+    <t>603085.SH</t>
+  </si>
+  <si>
+    <t>000728.SZ</t>
+  </si>
+  <si>
+    <t>605016.SH</t>
+  </si>
+  <si>
+    <t>603669.SH</t>
+  </si>
+  <si>
+    <t>688623.SH</t>
   </si>
   <si>
     <t>603050.SH</t>
   </si>
   <si>
-    <t>603669.SH</t>
-  </si>
-  <si>
-    <t>002752.SZ</t>
-  </si>
-  <si>
-    <t>300710.SZ</t>
-  </si>
-  <si>
-    <t>688226.SH</t>
-  </si>
-  <si>
-    <t>688367.SH</t>
-  </si>
-  <si>
-    <t>600293.SH</t>
-  </si>
-  <si>
-    <t>000999.SZ</t>
-  </si>
-  <si>
-    <t>688360.SH</t>
-  </si>
-  <si>
-    <t>603920.SH</t>
-  </si>
-  <si>
-    <t>002790.SZ</t>
-  </si>
-  <si>
-    <t>002992.SZ</t>
-  </si>
-  <si>
-    <t>603836.SH</t>
-  </si>
-  <si>
-    <t>600559.SH</t>
-  </si>
-  <si>
-    <t>688268.SH</t>
-  </si>
-  <si>
-    <t>600645.SH</t>
-  </si>
-  <si>
-    <t>002140.SZ</t>
-  </si>
-  <si>
-    <t>001326.SZ</t>
-  </si>
-  <si>
-    <t>000019.SZ</t>
-  </si>
-  <si>
-    <t>600486.SH</t>
-  </si>
-  <si>
-    <t>300593.SZ</t>
-  </si>
-  <si>
-    <t>688181.SH</t>
-  </si>
-  <si>
-    <t>601666.SH</t>
-  </si>
-  <si>
-    <t>300458.SZ</t>
-  </si>
-  <si>
-    <t>600409.SH</t>
-  </si>
-  <si>
-    <t>600233.SH</t>
-  </si>
-  <si>
-    <t>300001.SZ</t>
-  </si>
-  <si>
-    <t>002922.SZ</t>
-  </si>
-  <si>
-    <t>301369.SZ</t>
-  </si>
-  <si>
-    <t>002349.SZ</t>
-  </si>
-  <si>
-    <t>600132.SH</t>
-  </si>
-  <si>
-    <t>603595.SH</t>
-  </si>
-  <si>
-    <t>300316.SZ</t>
-  </si>
-  <si>
-    <t>301225.SZ</t>
-  </si>
-  <si>
-    <t>603676.SH</t>
-  </si>
-  <si>
-    <t>688270.SH</t>
-  </si>
-  <si>
-    <t>601818.SH</t>
-  </si>
-  <si>
-    <t>603219.SH</t>
-  </si>
-  <si>
-    <t>000833.SZ</t>
-  </si>
-  <si>
-    <t>600889.SH</t>
-  </si>
-  <si>
-    <t>601111.SH</t>
-  </si>
-  <si>
-    <t>000728.SZ</t>
-  </si>
-  <si>
-    <t>603269.SH</t>
-  </si>
-  <si>
-    <t>002580.SZ</t>
-  </si>
-  <si>
-    <t>300759.SZ</t>
-  </si>
-  <si>
-    <t>688689.SH</t>
-  </si>
-  <si>
-    <t>600389.SH</t>
-  </si>
-  <si>
-    <t>300514.SZ</t>
-  </si>
-  <si>
-    <t>300048.SZ</t>
-  </si>
-  <si>
-    <t>601766.SH</t>
-  </si>
-  <si>
-    <t>688220.SH</t>
-  </si>
-  <si>
-    <t>301222.SZ</t>
-  </si>
-  <si>
-    <t>300662.SZ</t>
-  </si>
-  <si>
-    <t>601989.SH</t>
-  </si>
-  <si>
-    <t>002234.SZ</t>
-  </si>
-  <si>
-    <t>301301.SZ</t>
-  </si>
-  <si>
-    <t>603007.SH</t>
-  </si>
-  <si>
-    <t>600694.SH</t>
-  </si>
-  <si>
-    <t>603889.SH</t>
-  </si>
-  <si>
-    <t>002862.SZ</t>
-  </si>
-  <si>
-    <t>300416.SZ</t>
-  </si>
-  <si>
-    <t>600530.SH</t>
-  </si>
-  <si>
-    <t>002948.SZ</t>
-  </si>
-  <si>
-    <t>001368.SZ</t>
-  </si>
-  <si>
-    <t>600329.SH</t>
-  </si>
-  <si>
-    <t>001228.SZ</t>
-  </si>
-  <si>
-    <t>603332.SH</t>
-  </si>
-  <si>
-    <t>002020.SZ</t>
-  </si>
-  <si>
-    <t>300239.SZ</t>
-  </si>
-  <si>
-    <t>600480.SH</t>
-  </si>
-  <si>
-    <t>300562.SZ</t>
-  </si>
-  <si>
-    <t>300773.SZ</t>
-  </si>
-  <si>
-    <t>688521.SH</t>
-  </si>
-  <si>
-    <t>688589.SH</t>
+    <t>001872.SZ</t>
+  </si>
+  <si>
+    <t>002128.SZ</t>
+  </si>
+  <si>
+    <t>300866.SZ</t>
+  </si>
+  <si>
+    <t>605183.SH</t>
+  </si>
+  <si>
+    <t>000682.SZ</t>
+  </si>
+  <si>
+    <t>688786.SH</t>
+  </si>
+  <si>
+    <t>688293.SH</t>
+  </si>
+  <si>
+    <t>300751.SZ</t>
   </si>
   <si>
     <t>601366.SH</t>
   </si>
   <si>
-    <t>002025.SZ</t>
-  </si>
-  <si>
-    <t>600326.SH</t>
-  </si>
-  <si>
-    <t>600123.SH</t>
-  </si>
-  <si>
-    <t>002404.SZ</t>
-  </si>
-  <si>
-    <t>001330.SZ</t>
-  </si>
-  <si>
-    <t>601827.SH</t>
-  </si>
-  <si>
-    <t>601328.SH</t>
-  </si>
-  <si>
-    <t>002895.SZ</t>
-  </si>
-  <si>
-    <t>300141.SZ</t>
-  </si>
-  <si>
-    <t>002564.SZ</t>
-  </si>
-  <si>
-    <t>601166.SH</t>
-  </si>
-  <si>
-    <t>688038.SH</t>
-  </si>
-  <si>
-    <t>002811.SZ</t>
-  </si>
-  <si>
-    <t>000567.SZ</t>
-  </si>
-  <si>
-    <t>600489.SH</t>
-  </si>
-  <si>
-    <t>300969.SZ</t>
-  </si>
-  <si>
-    <t>301503.SZ</t>
-  </si>
-  <si>
-    <t>301373.SZ</t>
-  </si>
-  <si>
-    <t>600219.SH</t>
-  </si>
-  <si>
-    <t>600007.SH</t>
-  </si>
-  <si>
-    <t>002617.SZ</t>
-  </si>
-  <si>
-    <t>600063.SH</t>
-  </si>
-  <si>
-    <t>联合水务</t>
-  </si>
-  <si>
-    <t>隆达股份</t>
-  </si>
-  <si>
-    <t>新奥股份</t>
+    <t>002146.SZ</t>
+  </si>
+  <si>
+    <t>002871.SZ</t>
+  </si>
+  <si>
+    <t>301175.SZ</t>
+  </si>
+  <si>
+    <t>002358.SZ</t>
+  </si>
+  <si>
+    <t>002166.SZ</t>
+  </si>
+  <si>
+    <t>002788.SZ</t>
+  </si>
+  <si>
+    <t>002606.SZ</t>
+  </si>
+  <si>
+    <t>688272.SH</t>
+  </si>
+  <si>
+    <t>上海银行</t>
+  </si>
+  <si>
+    <t>邮储银行</t>
+  </si>
+  <si>
+    <t>伟星股份</t>
+  </si>
+  <si>
+    <t>恒申新材</t>
+  </si>
+  <si>
+    <t>南京化纤</t>
+  </si>
+  <si>
+    <t>浙江新能</t>
+  </si>
+  <si>
+    <t>航天电器</t>
+  </si>
+  <si>
+    <t>东亚机械</t>
+  </si>
+  <si>
+    <t>张家港行</t>
+  </si>
+  <si>
+    <t>北方导航</t>
+  </si>
+  <si>
+    <t>华闻集团</t>
+  </si>
+  <si>
+    <t>雷迪克</t>
+  </si>
+  <si>
+    <t>珈伟新能</t>
+  </si>
+  <si>
+    <t>新泉股份</t>
+  </si>
+  <si>
+    <t>茂化实华</t>
+  </si>
+  <si>
+    <t>苏盐井神</t>
+  </si>
+  <si>
+    <t>申通快递</t>
+  </si>
+  <si>
+    <t>长盈通</t>
+  </si>
+  <si>
+    <t>华大九天</t>
+  </si>
+  <si>
+    <t>台华新材</t>
+  </si>
+  <si>
+    <t>大秦铁路</t>
+  </si>
+  <si>
+    <t>毕得医药</t>
+  </si>
+  <si>
+    <t>中金黄金</t>
+  </si>
+  <si>
+    <t>富祥药业</t>
+  </si>
+  <si>
+    <t>特变电工</t>
+  </si>
+  <si>
+    <t>电子城</t>
+  </si>
+  <si>
+    <t>华天科技</t>
+  </si>
+  <si>
+    <t>中储股份</t>
+  </si>
+  <si>
+    <t>盘龙药业</t>
+  </si>
+  <si>
+    <t>鲁西化工</t>
+  </si>
+  <si>
+    <t>银邦股份</t>
+  </si>
+  <si>
+    <t>永福股份</t>
+  </si>
+  <si>
+    <t>上海能源</t>
+  </si>
+  <si>
+    <t>千红制药</t>
+  </si>
+  <si>
+    <t>儒竞科技</t>
+  </si>
+  <si>
+    <t>华测检测</t>
+  </si>
+  <si>
+    <t>奥普光电</t>
+  </si>
+  <si>
+    <t>南矿集团</t>
+  </si>
+  <si>
+    <t>亚辉龙</t>
+  </si>
+  <si>
+    <t>利源股份</t>
+  </si>
+  <si>
+    <t>东方铁塔</t>
+  </si>
+  <si>
+    <t>正强股份</t>
+  </si>
+  <si>
+    <t>宁波银行</t>
+  </si>
+  <si>
+    <t>西测测试</t>
+  </si>
+  <si>
+    <t>华利集团</t>
+  </si>
+  <si>
+    <t>新澳股份</t>
+  </si>
+  <si>
+    <t>锡业股份</t>
+  </si>
+  <si>
+    <t>今天国际</t>
+  </si>
+  <si>
+    <t>民和股份</t>
+  </si>
+  <si>
+    <t>运达股份</t>
+  </si>
+  <si>
+    <t>万马科技</t>
+  </si>
+  <si>
+    <t>欣锐科技</t>
+  </si>
+  <si>
+    <t>久之洋</t>
+  </si>
+  <si>
+    <t>科伦药业</t>
+  </si>
+  <si>
+    <t>精工钢构</t>
+  </si>
+  <si>
+    <t>海澜之家</t>
+  </si>
+  <si>
+    <t>瀚川智能</t>
+  </si>
+  <si>
+    <t>华虹公司</t>
+  </si>
+  <si>
+    <t>天和防务</t>
+  </si>
+  <si>
+    <t>沪硅产业</t>
+  </si>
+  <si>
+    <t>怡达股份</t>
+  </si>
+  <si>
+    <t>隧道股份</t>
+  </si>
+  <si>
+    <t>祥明智能</t>
+  </si>
+  <si>
+    <t>家联科技</t>
+  </si>
+  <si>
+    <t>万得凯</t>
+  </si>
+  <si>
+    <t>大商股份</t>
+  </si>
+  <si>
+    <t>南京高科</t>
+  </si>
+  <si>
+    <t>滨江集团</t>
+  </si>
+  <si>
+    <t>科美诊断</t>
+  </si>
+  <si>
+    <t>至纯科技</t>
+  </si>
+  <si>
+    <t>士兰微</t>
+  </si>
+  <si>
+    <t>安利股份</t>
+  </si>
+  <si>
+    <t>江苏神通</t>
+  </si>
+  <si>
+    <t>浙商中拓</t>
+  </si>
+  <si>
+    <t>创元科技</t>
+  </si>
+  <si>
+    <t>口子窖</t>
+  </si>
+  <si>
+    <t>图南股份</t>
+  </si>
+  <si>
+    <t>天成自控</t>
+  </si>
+  <si>
+    <t>国元证券</t>
+  </si>
+  <si>
+    <t>百龙创园</t>
+  </si>
+  <si>
+    <t>灵康药业</t>
+  </si>
+  <si>
+    <t>双元科技</t>
   </si>
   <si>
     <t>科林电气</t>
   </si>
   <si>
-    <t>灵康药业</t>
-  </si>
-  <si>
-    <t>昇兴股份</t>
-  </si>
-  <si>
-    <t>万隆光电</t>
-  </si>
-  <si>
-    <t>威腾电气</t>
-  </si>
-  <si>
-    <t>工大高科</t>
-  </si>
-  <si>
-    <t>三峡新材</t>
-  </si>
-  <si>
-    <t>华润三九</t>
-  </si>
-  <si>
-    <t>德马科技</t>
-  </si>
-  <si>
-    <t>世运电路</t>
-  </si>
-  <si>
-    <t>瑞尔特</t>
-  </si>
-  <si>
-    <t>宝明科技</t>
-  </si>
-  <si>
-    <t>海程邦达</t>
-  </si>
-  <si>
-    <t>老白干酒</t>
-  </si>
-  <si>
-    <t>华特气体</t>
-  </si>
-  <si>
-    <t>中源协和</t>
-  </si>
-  <si>
-    <t>东华科技</t>
-  </si>
-  <si>
-    <t>联域股份</t>
-  </si>
-  <si>
-    <t>深粮控股</t>
-  </si>
-  <si>
-    <t>扬农化工</t>
-  </si>
-  <si>
-    <t>新雷能</t>
-  </si>
-  <si>
-    <t>八亿时空</t>
-  </si>
-  <si>
-    <t>平煤股份</t>
-  </si>
-  <si>
-    <t>全志科技</t>
-  </si>
-  <si>
-    <t>三友化工</t>
-  </si>
-  <si>
-    <t>圆通速递</t>
-  </si>
-  <si>
-    <t>特锐德</t>
-  </si>
-  <si>
-    <t>伊戈尔</t>
-  </si>
-  <si>
-    <t>联动科技</t>
-  </si>
-  <si>
-    <t>精华制药</t>
-  </si>
-  <si>
-    <t>重庆啤酒</t>
-  </si>
-  <si>
-    <t>东尼电子</t>
-  </si>
-  <si>
-    <t>晶盛机电</t>
-  </si>
-  <si>
-    <t>恒勃股份</t>
-  </si>
-  <si>
-    <t>卫信康</t>
-  </si>
-  <si>
-    <t>臻镭科技</t>
-  </si>
-  <si>
-    <t>光大银行</t>
-  </si>
-  <si>
-    <t>富佳股份</t>
-  </si>
-  <si>
-    <t>粤桂股份</t>
-  </si>
-  <si>
-    <t>南京化纤</t>
-  </si>
-  <si>
-    <t>中国国航</t>
-  </si>
-  <si>
-    <t>国元证券</t>
-  </si>
-  <si>
-    <t>海鸥股份</t>
-  </si>
-  <si>
-    <t>圣阳股份</t>
-  </si>
-  <si>
-    <t>康龙化成</t>
-  </si>
-  <si>
-    <t>银河微电</t>
-  </si>
-  <si>
-    <t>江山股份</t>
-  </si>
-  <si>
-    <t>友讯达</t>
-  </si>
-  <si>
-    <t>合康新能</t>
-  </si>
-  <si>
-    <t>中国中车</t>
-  </si>
-  <si>
-    <t>翱捷科技</t>
-  </si>
-  <si>
-    <t>浙江恒威</t>
-  </si>
-  <si>
-    <t>科锐国际</t>
-  </si>
-  <si>
-    <t>中国重工</t>
-  </si>
-  <si>
-    <t>民和股份</t>
-  </si>
-  <si>
-    <t>川宁生物</t>
-  </si>
-  <si>
-    <t>ST花王</t>
-  </si>
-  <si>
-    <t>大商股份</t>
-  </si>
-  <si>
-    <t>新澳股份</t>
-  </si>
-  <si>
-    <t>实丰文化</t>
-  </si>
-  <si>
-    <t>苏试试验</t>
-  </si>
-  <si>
-    <t>ST交昂</t>
-  </si>
-  <si>
-    <t>青岛银行</t>
-  </si>
-  <si>
-    <t>通达创智</t>
-  </si>
-  <si>
-    <t>达仁堂</t>
-  </si>
-  <si>
-    <t>永泰运</t>
-  </si>
-  <si>
-    <t>苏州龙杰</t>
-  </si>
-  <si>
-    <t>京新药业</t>
-  </si>
-  <si>
-    <t>东宝生物</t>
-  </si>
-  <si>
-    <t>凌云股份</t>
-  </si>
-  <si>
-    <t>乐心医疗</t>
-  </si>
-  <si>
-    <t>拉卡拉</t>
-  </si>
-  <si>
-    <t>芯原股份</t>
-  </si>
-  <si>
-    <t>力合微</t>
+    <t>招商港口</t>
+  </si>
+  <si>
+    <t>电投能源</t>
+  </si>
+  <si>
+    <t>安克创新</t>
+  </si>
+  <si>
+    <t>确成股份</t>
+  </si>
+  <si>
+    <t>东方电子</t>
+  </si>
+  <si>
+    <t>悦安新材</t>
+  </si>
+  <si>
+    <t>奥浦迈</t>
+  </si>
+  <si>
+    <t>迈为股份</t>
   </si>
   <si>
     <t>利群股份</t>
   </si>
   <si>
-    <t>航天电器</t>
-  </si>
-  <si>
-    <t>西藏天路</t>
-  </si>
-  <si>
-    <t>兰花科创</t>
-  </si>
-  <si>
-    <t>嘉欣丝绸</t>
-  </si>
-  <si>
-    <t>博纳影业</t>
-  </si>
-  <si>
-    <t>三峰环境</t>
-  </si>
-  <si>
-    <t>交通银行</t>
-  </si>
-  <si>
-    <t>川恒股份</t>
-  </si>
-  <si>
-    <t>和顺电气</t>
-  </si>
-  <si>
-    <t>*ST天沃</t>
-  </si>
-  <si>
-    <t>兴业银行</t>
-  </si>
-  <si>
-    <t>中科通达</t>
-  </si>
-  <si>
-    <t>郑中设计</t>
-  </si>
-  <si>
-    <t>海德股份</t>
-  </si>
-  <si>
-    <t>中金黄金</t>
-  </si>
-  <si>
-    <t>恒帅股份</t>
-  </si>
-  <si>
-    <t>智迪科技</t>
-  </si>
-  <si>
-    <t>凌玮科技</t>
-  </si>
-  <si>
-    <t>南山铝业</t>
-  </si>
-  <si>
-    <t>中国国贸</t>
-  </si>
-  <si>
-    <t>露笑科技</t>
-  </si>
-  <si>
-    <t>皖维高新</t>
+    <t>荣盛发展</t>
+  </si>
+  <si>
+    <t>伟隆股份</t>
+  </si>
+  <si>
+    <t>中科环保</t>
+  </si>
+  <si>
+    <t>森源电气</t>
+  </si>
+  <si>
+    <t>莱茵生物</t>
+  </si>
+  <si>
+    <t>鹭燕医药</t>
+  </si>
+  <si>
+    <t>大连电瓷</t>
+  </si>
+  <si>
+    <t>富吉瑞</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1011,7 @@
         <v>104</v>
       </c>
       <c r="C2">
-        <v>0.5994409918785095</v>
+        <v>0.5134655237197876</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1025,7 +1025,7 @@
         <v>105</v>
       </c>
       <c r="C3">
-        <v>0.5332533121109009</v>
+        <v>0.5113545656204224</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1039,7 +1039,7 @@
         <v>106</v>
       </c>
       <c r="C4">
-        <v>0.5234735608100891</v>
+        <v>0.5038799047470093</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1053,7 +1053,7 @@
         <v>107</v>
       </c>
       <c r="C5">
-        <v>0.5123177766799927</v>
+        <v>0.4974316656589508</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1067,7 +1067,7 @@
         <v>108</v>
       </c>
       <c r="C6">
-        <v>0.5119312405586243</v>
+        <v>0.4896498620510101</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1081,7 +1081,7 @@
         <v>109</v>
       </c>
       <c r="C7">
-        <v>0.5043913125991821</v>
+        <v>0.4864883422851562</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1095,7 +1095,7 @@
         <v>110</v>
       </c>
       <c r="C8">
-        <v>0.5011357665061951</v>
+        <v>0.4852380454540253</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1109,7 +1109,7 @@
         <v>111</v>
       </c>
       <c r="C9">
-        <v>0.4963075220584869</v>
+        <v>0.485020250082016</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1123,7 +1123,7 @@
         <v>112</v>
       </c>
       <c r="C10">
-        <v>0.4870103895664215</v>
+        <v>0.4732461869716644</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1137,7 +1137,7 @@
         <v>113</v>
       </c>
       <c r="C11">
-        <v>0.4839782416820526</v>
+        <v>0.4699693620204926</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1151,7 +1151,7 @@
         <v>114</v>
       </c>
       <c r="C12">
-        <v>0.4831881821155548</v>
+        <v>0.4699135720729828</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1165,7 +1165,7 @@
         <v>115</v>
       </c>
       <c r="C13">
-        <v>0.4816857874393463</v>
+        <v>0.4650815427303314</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1179,7 +1179,7 @@
         <v>116</v>
       </c>
       <c r="C14">
-        <v>0.4800014197826385</v>
+        <v>0.4650674760341644</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1193,7 +1193,7 @@
         <v>117</v>
       </c>
       <c r="C15">
-        <v>0.4785985052585602</v>
+        <v>0.4625819623470306</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1207,7 +1207,7 @@
         <v>118</v>
       </c>
       <c r="C16">
-        <v>0.4758446216583252</v>
+        <v>0.4600969851016998</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1221,7 +1221,7 @@
         <v>119</v>
       </c>
       <c r="C17">
-        <v>0.4749514758586884</v>
+        <v>0.4600323140621185</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1235,7 +1235,7 @@
         <v>120</v>
       </c>
       <c r="C18">
-        <v>0.4714089930057526</v>
+        <v>0.4559902846813202</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1249,7 +1249,7 @@
         <v>121</v>
       </c>
       <c r="C19">
-        <v>0.4713407456874847</v>
+        <v>0.455814927816391</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1263,7 +1263,7 @@
         <v>122</v>
       </c>
       <c r="C20">
-        <v>0.4702746570110321</v>
+        <v>0.4548279345035553</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1277,7 +1277,7 @@
         <v>123</v>
       </c>
       <c r="C21">
-        <v>0.463247686624527</v>
+        <v>0.4542936384677887</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1291,7 +1291,7 @@
         <v>124</v>
       </c>
       <c r="C22">
-        <v>0.4619610011577606</v>
+        <v>0.4533804953098297</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1305,7 +1305,7 @@
         <v>125</v>
       </c>
       <c r="C23">
-        <v>0.4614527523517609</v>
+        <v>0.4488708078861237</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1319,7 +1319,7 @@
         <v>126</v>
       </c>
       <c r="C24">
-        <v>0.4614175260066986</v>
+        <v>0.4470753967761993</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1333,7 +1333,7 @@
         <v>127</v>
       </c>
       <c r="C25">
-        <v>0.4573532044887543</v>
+        <v>0.4464356005191803</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1347,7 +1347,7 @@
         <v>128</v>
       </c>
       <c r="C26">
-        <v>0.4572307765483856</v>
+        <v>0.4462818801403046</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1361,7 +1361,7 @@
         <v>129</v>
       </c>
       <c r="C27">
-        <v>0.4564512670040131</v>
+        <v>0.4461215436458588</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1375,7 +1375,7 @@
         <v>130</v>
       </c>
       <c r="C28">
-        <v>0.4561956822872162</v>
+        <v>0.4457480609416962</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1389,7 +1389,7 @@
         <v>131</v>
       </c>
       <c r="C29">
-        <v>0.4560747146606445</v>
+        <v>0.4449512660503387</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1403,7 +1403,7 @@
         <v>132</v>
       </c>
       <c r="C30">
-        <v>0.4555442631244659</v>
+        <v>0.4438525140285492</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1417,7 +1417,7 @@
         <v>133</v>
       </c>
       <c r="C31">
-        <v>0.4552338123321533</v>
+        <v>0.4433070719242096</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1431,7 +1431,7 @@
         <v>134</v>
       </c>
       <c r="C32">
-        <v>0.4537889659404755</v>
+        <v>0.4426775872707367</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1445,7 +1445,7 @@
         <v>135</v>
       </c>
       <c r="C33">
-        <v>0.4537142813205719</v>
+        <v>0.4422968327999115</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1459,7 +1459,7 @@
         <v>136</v>
       </c>
       <c r="C34">
-        <v>0.4533009827136993</v>
+        <v>0.4420883357524872</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1473,7 +1473,7 @@
         <v>137</v>
       </c>
       <c r="C35">
-        <v>0.453256219625473</v>
+        <v>0.4414274394512177</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1487,7 +1487,7 @@
         <v>138</v>
       </c>
       <c r="C36">
-        <v>0.45285764336586</v>
+        <v>0.440966933965683</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1501,7 +1501,7 @@
         <v>139</v>
       </c>
       <c r="C37">
-        <v>0.4521234929561615</v>
+        <v>0.4405819475650787</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1515,7 +1515,7 @@
         <v>140</v>
       </c>
       <c r="C38">
-        <v>0.451951265335083</v>
+        <v>0.4403065145015717</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1529,7 +1529,7 @@
         <v>141</v>
       </c>
       <c r="C39">
-        <v>0.4511883556842804</v>
+        <v>0.4401384294033051</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1543,7 +1543,7 @@
         <v>142</v>
       </c>
       <c r="C40">
-        <v>0.4502098560333252</v>
+        <v>0.4390586316585541</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1557,7 +1557,7 @@
         <v>143</v>
       </c>
       <c r="C41">
-        <v>0.4500137865543365</v>
+        <v>0.4387013614177704</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1571,7 +1571,7 @@
         <v>144</v>
       </c>
       <c r="C42">
-        <v>0.4497854709625244</v>
+        <v>0.438507080078125</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1585,7 +1585,7 @@
         <v>145</v>
       </c>
       <c r="C43">
-        <v>0.4495514333248138</v>
+        <v>0.4385017454624176</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1599,7 +1599,7 @@
         <v>146</v>
       </c>
       <c r="C44">
-        <v>0.4492160379886627</v>
+        <v>0.4383603632450104</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1613,7 +1613,7 @@
         <v>147</v>
       </c>
       <c r="C45">
-        <v>0.4472825229167938</v>
+        <v>0.4380678236484528</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1627,7 +1627,7 @@
         <v>148</v>
       </c>
       <c r="C46">
-        <v>0.4471384584903717</v>
+        <v>0.4371337592601776</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1641,7 +1641,7 @@
         <v>149</v>
       </c>
       <c r="C47">
-        <v>0.4464434087276459</v>
+        <v>0.4366972744464874</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1655,7 +1655,7 @@
         <v>150</v>
       </c>
       <c r="C48">
-        <v>0.4462244212627411</v>
+        <v>0.4365080893039703</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1669,7 +1669,7 @@
         <v>151</v>
       </c>
       <c r="C49">
-        <v>0.4462218582630157</v>
+        <v>0.435396283864975</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1683,7 +1683,7 @@
         <v>152</v>
       </c>
       <c r="C50">
-        <v>0.4461189210414886</v>
+        <v>0.4348609745502472</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1697,7 +1697,7 @@
         <v>153</v>
       </c>
       <c r="C51">
-        <v>0.4458699226379395</v>
+        <v>0.4346955716609955</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1711,7 +1711,7 @@
         <v>154</v>
       </c>
       <c r="C52">
-        <v>0.4454658925533295</v>
+        <v>0.4338341653347015</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1725,7 +1725,7 @@
         <v>155</v>
       </c>
       <c r="C53">
-        <v>0.4453721046447754</v>
+        <v>0.4332407414913177</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1739,7 +1739,7 @@
         <v>156</v>
       </c>
       <c r="C54">
-        <v>0.4450497627258301</v>
+        <v>0.4330430924892426</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1753,7 +1753,7 @@
         <v>157</v>
       </c>
       <c r="C55">
-        <v>0.4447174370288849</v>
+        <v>0.4330278933048248</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1767,7 +1767,7 @@
         <v>158</v>
       </c>
       <c r="C56">
-        <v>0.4442439079284668</v>
+        <v>0.4325462281703949</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1781,7 +1781,7 @@
         <v>159</v>
       </c>
       <c r="C57">
-        <v>0.4435589611530304</v>
+        <v>0.4325323104858398</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1795,7 +1795,7 @@
         <v>160</v>
       </c>
       <c r="C58">
-        <v>0.4430358409881592</v>
+        <v>0.4321065247058868</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1809,7 +1809,7 @@
         <v>161</v>
       </c>
       <c r="C59">
-        <v>0.4428533017635345</v>
+        <v>0.4320573806762695</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1823,7 +1823,7 @@
         <v>162</v>
       </c>
       <c r="C60">
-        <v>0.4425283372402191</v>
+        <v>0.4315358698368073</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1837,7 +1837,7 @@
         <v>163</v>
       </c>
       <c r="C61">
-        <v>0.4423982799053192</v>
+        <v>0.4312504231929779</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -1851,7 +1851,7 @@
         <v>164</v>
       </c>
       <c r="C62">
-        <v>0.4421506822109222</v>
+        <v>0.4311998188495636</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -1865,7 +1865,7 @@
         <v>165</v>
       </c>
       <c r="C63">
-        <v>0.4420348703861237</v>
+        <v>0.4307140409946442</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -1879,7 +1879,7 @@
         <v>166</v>
       </c>
       <c r="C64">
-        <v>0.4414157867431641</v>
+        <v>0.4303111135959625</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -1893,7 +1893,7 @@
         <v>167</v>
       </c>
       <c r="C65">
-        <v>0.4412510395050049</v>
+        <v>0.4301751554012299</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -1907,7 +1907,7 @@
         <v>168</v>
       </c>
       <c r="C66">
-        <v>0.4405131042003632</v>
+        <v>0.4299143254756927</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -1921,7 +1921,7 @@
         <v>169</v>
       </c>
       <c r="C67">
-        <v>0.4404851496219635</v>
+        <v>0.4296297132968903</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -1935,7 +1935,7 @@
         <v>170</v>
       </c>
       <c r="C68">
-        <v>0.4401160180568695</v>
+        <v>0.4295274913311005</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -1949,7 +1949,7 @@
         <v>171</v>
       </c>
       <c r="C69">
-        <v>0.4394363462924957</v>
+        <v>0.4293624460697174</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -1963,7 +1963,7 @@
         <v>172</v>
       </c>
       <c r="C70">
-        <v>0.4393561184406281</v>
+        <v>0.428900808095932</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -1977,7 +1977,7 @@
         <v>173</v>
       </c>
       <c r="C71">
-        <v>0.4392867088317871</v>
+        <v>0.4284470975399017</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -1991,7 +1991,7 @@
         <v>174</v>
       </c>
       <c r="C72">
-        <v>0.4388011991977692</v>
+        <v>0.4284417331218719</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2005,7 +2005,7 @@
         <v>175</v>
       </c>
       <c r="C73">
-        <v>0.4384861290454865</v>
+        <v>0.4281822144985199</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2019,7 +2019,7 @@
         <v>176</v>
       </c>
       <c r="C74">
-        <v>0.4383300244808197</v>
+        <v>0.4280499517917633</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2033,7 +2033,7 @@
         <v>177</v>
       </c>
       <c r="C75">
-        <v>0.4380770027637482</v>
+        <v>0.4275385439395905</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2047,7 +2047,7 @@
         <v>178</v>
       </c>
       <c r="C76">
-        <v>0.4378664195537567</v>
+        <v>0.4274669587612152</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2061,7 +2061,7 @@
         <v>179</v>
       </c>
       <c r="C77">
-        <v>0.4377657473087311</v>
+        <v>0.4273577630519867</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2075,7 +2075,7 @@
         <v>180</v>
       </c>
       <c r="C78">
-        <v>0.4377343356609344</v>
+        <v>0.427117258310318</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2089,7 +2089,7 @@
         <v>181</v>
       </c>
       <c r="C79">
-        <v>0.4373277723789215</v>
+        <v>0.4267875254154205</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2103,7 +2103,7 @@
         <v>182</v>
       </c>
       <c r="C80">
-        <v>0.4372944831848145</v>
+        <v>0.4267076551914215</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2117,7 +2117,7 @@
         <v>183</v>
       </c>
       <c r="C81">
-        <v>0.4372774064540863</v>
+        <v>0.4266389906406403</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2131,7 +2131,7 @@
         <v>184</v>
       </c>
       <c r="C82">
-        <v>0.4372098743915558</v>
+        <v>0.4265410006046295</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2145,7 +2145,7 @@
         <v>185</v>
       </c>
       <c r="C83">
-        <v>0.436861515045166</v>
+        <v>0.4262464344501495</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2159,7 +2159,7 @@
         <v>186</v>
       </c>
       <c r="C84">
-        <v>0.4367477893829346</v>
+        <v>0.4257306158542633</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2173,7 +2173,7 @@
         <v>187</v>
       </c>
       <c r="C85">
-        <v>0.4366981089115143</v>
+        <v>0.4256441593170166</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2187,7 +2187,7 @@
         <v>188</v>
       </c>
       <c r="C86">
-        <v>0.4365589916706085</v>
+        <v>0.4255540668964386</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2201,7 +2201,7 @@
         <v>189</v>
       </c>
       <c r="C87">
-        <v>0.4365440309047699</v>
+        <v>0.4254885613918304</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2215,7 +2215,7 @@
         <v>190</v>
       </c>
       <c r="C88">
-        <v>0.4365344941616058</v>
+        <v>0.4249066412448883</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2229,7 +2229,7 @@
         <v>191</v>
       </c>
       <c r="C89">
-        <v>0.4364809095859528</v>
+        <v>0.4245151579380035</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2243,7 +2243,7 @@
         <v>192</v>
       </c>
       <c r="C90">
-        <v>0.4364377558231354</v>
+        <v>0.4245094358921051</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2257,7 +2257,7 @@
         <v>193</v>
       </c>
       <c r="C91">
-        <v>0.4362879693508148</v>
+        <v>0.4244509637355804</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2271,7 +2271,7 @@
         <v>194</v>
       </c>
       <c r="C92">
-        <v>0.4360391795635223</v>
+        <v>0.4239755570888519</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2285,7 +2285,7 @@
         <v>195</v>
       </c>
       <c r="C93">
-        <v>0.4356578886508942</v>
+        <v>0.4237953126430511</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2299,7 +2299,7 @@
         <v>196</v>
       </c>
       <c r="C94">
-        <v>0.4353959560394287</v>
+        <v>0.423670619726181</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2313,7 +2313,7 @@
         <v>197</v>
       </c>
       <c r="C95">
-        <v>0.4352704584598541</v>
+        <v>0.4236244261264801</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2327,7 +2327,7 @@
         <v>198</v>
       </c>
       <c r="C96">
-        <v>0.4351150095462799</v>
+        <v>0.4233609139919281</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2341,7 +2341,7 @@
         <v>199</v>
       </c>
       <c r="C97">
-        <v>0.4348542392253876</v>
+        <v>0.4232467710971832</v>
       </c>
       <c r="D97">
         <v>96</v>
@@ -2355,7 +2355,7 @@
         <v>200</v>
       </c>
       <c r="C98">
-        <v>0.4347091615200043</v>
+        <v>0.4231221377849579</v>
       </c>
       <c r="D98">
         <v>97</v>
@@ -2369,7 +2369,7 @@
         <v>201</v>
       </c>
       <c r="C99">
-        <v>0.4346567690372467</v>
+        <v>0.4227584898471832</v>
       </c>
       <c r="D99">
         <v>98</v>
@@ -2383,7 +2383,7 @@
         <v>202</v>
       </c>
       <c r="C100">
-        <v>0.4340074360370636</v>
+        <v>0.422523021697998</v>
       </c>
       <c r="D100">
         <v>99</v>
@@ -2397,7 +2397,7 @@
         <v>203</v>
       </c>
       <c r="C101">
-        <v>0.4333676397800446</v>
+        <v>0.4221414625644684</v>
       </c>
       <c r="D101">
         <v>100</v>

--- a/金融/模拟投资组合-机器学习模型-选股/LSTM-预测结果.xlsx
+++ b/金融/模拟投资组合-机器学习模型-选股/LSTM-预测结果.xlsx
@@ -28,604 +28,604 @@
     <t>综合得分</t>
   </si>
   <si>
-    <t>601229.SH</t>
-  </si>
-  <si>
-    <t>601658.SH</t>
-  </si>
-  <si>
-    <t>002003.SZ</t>
-  </si>
-  <si>
-    <t>000782.SZ</t>
-  </si>
-  <si>
-    <t>600889.SH</t>
-  </si>
-  <si>
-    <t>600032.SH</t>
-  </si>
-  <si>
-    <t>002025.SZ</t>
-  </si>
-  <si>
-    <t>301028.SZ</t>
-  </si>
-  <si>
-    <t>002839.SZ</t>
-  </si>
-  <si>
-    <t>600435.SH</t>
-  </si>
-  <si>
-    <t>000793.SZ</t>
-  </si>
-  <si>
-    <t>300652.SZ</t>
-  </si>
-  <si>
-    <t>300317.SZ</t>
-  </si>
-  <si>
-    <t>603179.SH</t>
-  </si>
-  <si>
-    <t>000637.SZ</t>
-  </si>
-  <si>
-    <t>603299.SH</t>
-  </si>
-  <si>
-    <t>002468.SZ</t>
-  </si>
-  <si>
-    <t>688143.SH</t>
-  </si>
-  <si>
-    <t>301269.SZ</t>
-  </si>
-  <si>
-    <t>603055.SH</t>
-  </si>
-  <si>
-    <t>601006.SH</t>
-  </si>
-  <si>
-    <t>688073.SH</t>
-  </si>
-  <si>
-    <t>600489.SH</t>
-  </si>
-  <si>
-    <t>300497.SZ</t>
-  </si>
-  <si>
-    <t>600089.SH</t>
-  </si>
-  <si>
-    <t>600658.SH</t>
-  </si>
-  <si>
-    <t>002185.SZ</t>
-  </si>
-  <si>
-    <t>600787.SH</t>
-  </si>
-  <si>
-    <t>002864.SZ</t>
+    <t>600611.SH</t>
+  </si>
+  <si>
+    <t>000702.SZ</t>
+  </si>
+  <si>
+    <t>300604.SZ</t>
+  </si>
+  <si>
+    <t>605368.SH</t>
+  </si>
+  <si>
+    <t>300519.SZ</t>
+  </si>
+  <si>
+    <t>600893.SH</t>
+  </si>
+  <si>
+    <t>002501.SZ</t>
+  </si>
+  <si>
+    <t>002444.SZ</t>
+  </si>
+  <si>
+    <t>601121.SH</t>
+  </si>
+  <si>
+    <t>601611.SH</t>
+  </si>
+  <si>
+    <t>601827.SH</t>
+  </si>
+  <si>
+    <t>600163.SH</t>
+  </si>
+  <si>
+    <t>300436.SZ</t>
+  </si>
+  <si>
+    <t>300008.SZ</t>
+  </si>
+  <si>
+    <t>603982.SH</t>
+  </si>
+  <si>
+    <t>002497.SZ</t>
+  </si>
+  <si>
+    <t>601899.SH</t>
+  </si>
+  <si>
+    <t>600309.SH</t>
+  </si>
+  <si>
+    <t>000738.SZ</t>
+  </si>
+  <si>
+    <t>603217.SH</t>
+  </si>
+  <si>
+    <t>600461.SH</t>
+  </si>
+  <si>
+    <t>301389.SZ</t>
+  </si>
+  <si>
+    <t>301179.SZ</t>
+  </si>
+  <si>
+    <t>600115.SH</t>
+  </si>
+  <si>
+    <t>603102.SH</t>
+  </si>
+  <si>
+    <t>001205.SZ</t>
+  </si>
+  <si>
+    <t>603725.SH</t>
+  </si>
+  <si>
+    <t>300508.SZ</t>
+  </si>
+  <si>
+    <t>002920.SZ</t>
+  </si>
+  <si>
+    <t>688500.SH</t>
+  </si>
+  <si>
+    <t>600690.SH</t>
+  </si>
+  <si>
+    <t>600237.SH</t>
+  </si>
+  <si>
+    <t>600409.SH</t>
+  </si>
+  <si>
+    <t>300458.SZ</t>
+  </si>
+  <si>
+    <t>300816.SZ</t>
+  </si>
+  <si>
+    <t>300743.SZ</t>
+  </si>
+  <si>
+    <t>600196.SH</t>
+  </si>
+  <si>
+    <t>600660.SH</t>
+  </si>
+  <si>
+    <t>600875.SH</t>
+  </si>
+  <si>
+    <t>000949.SZ</t>
+  </si>
+  <si>
+    <t>300770.SZ</t>
+  </si>
+  <si>
+    <t>300893.SZ</t>
+  </si>
+  <si>
+    <t>688347.SH</t>
+  </si>
+  <si>
+    <t>600012.SH</t>
+  </si>
+  <si>
+    <t>002475.SZ</t>
+  </si>
+  <si>
+    <t>000957.SZ</t>
+  </si>
+  <si>
+    <t>600517.SH</t>
+  </si>
+  <si>
+    <t>002545.SZ</t>
+  </si>
+  <si>
+    <t>600203.SH</t>
+  </si>
+  <si>
+    <t>002580.SZ</t>
+  </si>
+  <si>
+    <t>600123.SH</t>
+  </si>
+  <si>
+    <t>002161.SZ</t>
+  </si>
+  <si>
+    <t>002472.SZ</t>
+  </si>
+  <si>
+    <t>603177.SH</t>
+  </si>
+  <si>
+    <t>002594.SZ</t>
+  </si>
+  <si>
+    <t>600618.SH</t>
+  </si>
+  <si>
+    <t>688234.SH</t>
+  </si>
+  <si>
+    <t>300691.SZ</t>
+  </si>
+  <si>
+    <t>300858.SZ</t>
+  </si>
+  <si>
+    <t>300866.SZ</t>
+  </si>
+  <si>
+    <t>000651.SZ</t>
+  </si>
+  <si>
+    <t>605366.SH</t>
+  </si>
+  <si>
+    <t>002852.SZ</t>
+  </si>
+  <si>
+    <t>605598.SH</t>
+  </si>
+  <si>
+    <t>300573.SZ</t>
+  </si>
+  <si>
+    <t>688019.SH</t>
   </si>
   <si>
     <t>000830.SZ</t>
   </si>
   <si>
-    <t>300337.SZ</t>
-  </si>
-  <si>
-    <t>300712.SZ</t>
-  </si>
-  <si>
-    <t>600508.SH</t>
-  </si>
-  <si>
-    <t>002550.SZ</t>
-  </si>
-  <si>
-    <t>301525.SZ</t>
-  </si>
-  <si>
-    <t>300012.SZ</t>
-  </si>
-  <si>
-    <t>002338.SZ</t>
-  </si>
-  <si>
-    <t>001360.SZ</t>
-  </si>
-  <si>
-    <t>688575.SH</t>
-  </si>
-  <si>
-    <t>002501.SZ</t>
-  </si>
-  <si>
-    <t>002545.SZ</t>
-  </si>
-  <si>
-    <t>301119.SZ</t>
-  </si>
-  <si>
-    <t>002142.SZ</t>
-  </si>
-  <si>
-    <t>301306.SZ</t>
-  </si>
-  <si>
-    <t>300979.SZ</t>
-  </si>
-  <si>
-    <t>603889.SH</t>
-  </si>
-  <si>
-    <t>000960.SZ</t>
-  </si>
-  <si>
-    <t>300532.SZ</t>
-  </si>
-  <si>
-    <t>002234.SZ</t>
-  </si>
-  <si>
-    <t>300772.SZ</t>
-  </si>
-  <si>
-    <t>300698.SZ</t>
-  </si>
-  <si>
-    <t>300745.SZ</t>
-  </si>
-  <si>
-    <t>300516.SZ</t>
-  </si>
-  <si>
-    <t>002422.SZ</t>
-  </si>
-  <si>
-    <t>600496.SH</t>
-  </si>
-  <si>
-    <t>600398.SH</t>
-  </si>
-  <si>
-    <t>688022.SH</t>
-  </si>
-  <si>
-    <t>688347.SH</t>
-  </si>
-  <si>
-    <t>300397.SZ</t>
-  </si>
-  <si>
-    <t>688126.SH</t>
-  </si>
-  <si>
-    <t>300721.SZ</t>
-  </si>
-  <si>
-    <t>600820.SH</t>
-  </si>
-  <si>
-    <t>301226.SZ</t>
-  </si>
-  <si>
-    <t>301193.SZ</t>
-  </si>
-  <si>
-    <t>301309.SZ</t>
-  </si>
-  <si>
-    <t>600694.SH</t>
-  </si>
-  <si>
-    <t>600064.SH</t>
-  </si>
-  <si>
-    <t>002244.SZ</t>
-  </si>
-  <si>
-    <t>688468.SH</t>
-  </si>
-  <si>
-    <t>603690.SH</t>
-  </si>
-  <si>
-    <t>600460.SH</t>
-  </si>
-  <si>
-    <t>300218.SZ</t>
-  </si>
-  <si>
-    <t>002438.SZ</t>
-  </si>
-  <si>
-    <t>000906.SZ</t>
-  </si>
-  <si>
-    <t>000551.SZ</t>
-  </si>
-  <si>
-    <t>603589.SH</t>
-  </si>
-  <si>
-    <t>300855.SZ</t>
-  </si>
-  <si>
-    <t>603085.SH</t>
-  </si>
-  <si>
-    <t>000728.SZ</t>
-  </si>
-  <si>
-    <t>605016.SH</t>
-  </si>
-  <si>
-    <t>603669.SH</t>
-  </si>
-  <si>
-    <t>688623.SH</t>
-  </si>
-  <si>
-    <t>603050.SH</t>
-  </si>
-  <si>
-    <t>001872.SZ</t>
-  </si>
-  <si>
-    <t>002128.SZ</t>
-  </si>
-  <si>
-    <t>300866.SZ</t>
-  </si>
-  <si>
-    <t>605183.SH</t>
-  </si>
-  <si>
-    <t>000682.SZ</t>
-  </si>
-  <si>
-    <t>688786.SH</t>
-  </si>
-  <si>
-    <t>688293.SH</t>
-  </si>
-  <si>
-    <t>300751.SZ</t>
-  </si>
-  <si>
-    <t>601366.SH</t>
-  </si>
-  <si>
-    <t>002146.SZ</t>
-  </si>
-  <si>
-    <t>002871.SZ</t>
-  </si>
-  <si>
-    <t>301175.SZ</t>
-  </si>
-  <si>
-    <t>002358.SZ</t>
-  </si>
-  <si>
-    <t>002166.SZ</t>
-  </si>
-  <si>
-    <t>002788.SZ</t>
-  </si>
-  <si>
-    <t>002606.SZ</t>
-  </si>
-  <si>
-    <t>688272.SH</t>
-  </si>
-  <si>
-    <t>上海银行</t>
-  </si>
-  <si>
-    <t>邮储银行</t>
-  </si>
-  <si>
-    <t>伟星股份</t>
-  </si>
-  <si>
-    <t>恒申新材</t>
-  </si>
-  <si>
-    <t>南京化纤</t>
-  </si>
-  <si>
-    <t>浙江新能</t>
-  </si>
-  <si>
-    <t>航天电器</t>
-  </si>
-  <si>
-    <t>东亚机械</t>
-  </si>
-  <si>
-    <t>张家港行</t>
-  </si>
-  <si>
-    <t>北方导航</t>
-  </si>
-  <si>
-    <t>华闻集团</t>
-  </si>
-  <si>
-    <t>雷迪克</t>
-  </si>
-  <si>
-    <t>珈伟新能</t>
-  </si>
-  <si>
-    <t>新泉股份</t>
-  </si>
-  <si>
-    <t>茂化实华</t>
-  </si>
-  <si>
-    <t>苏盐井神</t>
-  </si>
-  <si>
-    <t>申通快递</t>
-  </si>
-  <si>
-    <t>长盈通</t>
-  </si>
-  <si>
-    <t>华大九天</t>
-  </si>
-  <si>
-    <t>台华新材</t>
-  </si>
-  <si>
-    <t>大秦铁路</t>
-  </si>
-  <si>
-    <t>毕得医药</t>
-  </si>
-  <si>
-    <t>中金黄金</t>
-  </si>
-  <si>
-    <t>富祥药业</t>
-  </si>
-  <si>
-    <t>特变电工</t>
-  </si>
-  <si>
-    <t>电子城</t>
-  </si>
-  <si>
-    <t>华天科技</t>
-  </si>
-  <si>
-    <t>中储股份</t>
-  </si>
-  <si>
-    <t>盘龙药业</t>
+    <t>688162.SH</t>
+  </si>
+  <si>
+    <t>600255.SH</t>
+  </si>
+  <si>
+    <t>600039.SH</t>
+  </si>
+  <si>
+    <t>600540.SH</t>
+  </si>
+  <si>
+    <t>688093.SH</t>
+  </si>
+  <si>
+    <t>003022.SZ</t>
+  </si>
+  <si>
+    <t>688368.SH</t>
+  </si>
+  <si>
+    <t>301326.SZ</t>
+  </si>
+  <si>
+    <t>603618.SH</t>
+  </si>
+  <si>
+    <t>300752.SZ</t>
+  </si>
+  <si>
+    <t>603693.SH</t>
+  </si>
+  <si>
+    <t>301167.SZ</t>
+  </si>
+  <si>
+    <t>002862.SZ</t>
+  </si>
+  <si>
+    <t>002011.SZ</t>
+  </si>
+  <si>
+    <t>603067.SH</t>
+  </si>
+  <si>
+    <t>002906.SZ</t>
+  </si>
+  <si>
+    <t>300819.SZ</t>
+  </si>
+  <si>
+    <t>600497.SH</t>
+  </si>
+  <si>
+    <t>600368.SH</t>
+  </si>
+  <si>
+    <t>301230.SZ</t>
+  </si>
+  <si>
+    <t>603648.SH</t>
+  </si>
+  <si>
+    <t>600874.SH</t>
+  </si>
+  <si>
+    <t>688589.SH</t>
+  </si>
+  <si>
+    <t>300493.SZ</t>
+  </si>
+  <si>
+    <t>000758.SZ</t>
+  </si>
+  <si>
+    <t>600617.SH</t>
+  </si>
+  <si>
+    <t>000155.SZ</t>
+  </si>
+  <si>
+    <t>600262.SH</t>
+  </si>
+  <si>
+    <t>002125.SZ</t>
+  </si>
+  <si>
+    <t>000962.SZ</t>
+  </si>
+  <si>
+    <t>605058.SH</t>
+  </si>
+  <si>
+    <t>000416.SZ</t>
+  </si>
+  <si>
+    <t>002089.SZ</t>
+  </si>
+  <si>
+    <t>大众交通</t>
+  </si>
+  <si>
+    <t>正虹科技</t>
+  </si>
+  <si>
+    <t>长川科技</t>
+  </si>
+  <si>
+    <t>蓝天燃气</t>
+  </si>
+  <si>
+    <t>新光药业</t>
+  </si>
+  <si>
+    <t>航发动力</t>
+  </si>
+  <si>
+    <t>利源股份</t>
+  </si>
+  <si>
+    <t>巨星科技</t>
+  </si>
+  <si>
+    <t>宝地矿业</t>
+  </si>
+  <si>
+    <t>中国核建</t>
+  </si>
+  <si>
+    <t>三峰环境</t>
+  </si>
+  <si>
+    <t>中闽能源</t>
+  </si>
+  <si>
+    <t>广生堂</t>
+  </si>
+  <si>
+    <t>天海防务</t>
+  </si>
+  <si>
+    <t>泉峰汽车</t>
+  </si>
+  <si>
+    <t>雅化集团</t>
+  </si>
+  <si>
+    <t>紫金矿业</t>
+  </si>
+  <si>
+    <t>万华化学</t>
+  </si>
+  <si>
+    <t>航发控制</t>
+  </si>
+  <si>
+    <t>元利科技</t>
+  </si>
+  <si>
+    <t>洪城环境</t>
+  </si>
+  <si>
+    <t>隆扬电子</t>
+  </si>
+  <si>
+    <t>泽宇智能</t>
+  </si>
+  <si>
+    <t>中国东航</t>
+  </si>
+  <si>
+    <t>百合股份</t>
+  </si>
+  <si>
+    <t>盛航股份</t>
+  </si>
+  <si>
+    <t>天安新材</t>
+  </si>
+  <si>
+    <t>维宏股份</t>
+  </si>
+  <si>
+    <t>德赛西威</t>
+  </si>
+  <si>
+    <t>慧辰股份</t>
+  </si>
+  <si>
+    <t>海尔智家</t>
+  </si>
+  <si>
+    <t>铜峰电子</t>
+  </si>
+  <si>
+    <t>三友化工</t>
+  </si>
+  <si>
+    <t>全志科技</t>
+  </si>
+  <si>
+    <t>艾可蓝</t>
+  </si>
+  <si>
+    <t>天地数码</t>
+  </si>
+  <si>
+    <t>复星医药</t>
+  </si>
+  <si>
+    <t>福耀玻璃</t>
+  </si>
+  <si>
+    <t>东方电气</t>
+  </si>
+  <si>
+    <t>新乡化纤</t>
+  </si>
+  <si>
+    <t>新媒股份</t>
+  </si>
+  <si>
+    <t>松原股份</t>
+  </si>
+  <si>
+    <t>华虹公司</t>
+  </si>
+  <si>
+    <t>皖通高速</t>
+  </si>
+  <si>
+    <t>立讯精密</t>
+  </si>
+  <si>
+    <t>中通客车</t>
+  </si>
+  <si>
+    <t>国网英大</t>
+  </si>
+  <si>
+    <t>东方铁塔</t>
+  </si>
+  <si>
+    <t>福日电子</t>
+  </si>
+  <si>
+    <t>圣阳股份</t>
+  </si>
+  <si>
+    <t>兰花科创</t>
+  </si>
+  <si>
+    <t>远望谷</t>
+  </si>
+  <si>
+    <t>双环传动</t>
+  </si>
+  <si>
+    <t>德创环保</t>
+  </si>
+  <si>
+    <t>比亚迪</t>
+  </si>
+  <si>
+    <t>氯碱化工</t>
+  </si>
+  <si>
+    <t>天岳先进</t>
+  </si>
+  <si>
+    <t>联合光电</t>
+  </si>
+  <si>
+    <t>科拓生物</t>
+  </si>
+  <si>
+    <t>安克创新</t>
+  </si>
+  <si>
+    <t>格力电器</t>
+  </si>
+  <si>
+    <t>宏柏新材</t>
+  </si>
+  <si>
+    <t>道道全</t>
+  </si>
+  <si>
+    <t>上海港湾</t>
+  </si>
+  <si>
+    <t>兴齐眼药</t>
+  </si>
+  <si>
+    <t>安集科技</t>
   </si>
   <si>
     <t>鲁西化工</t>
   </si>
   <si>
-    <t>银邦股份</t>
-  </si>
-  <si>
-    <t>永福股份</t>
-  </si>
-  <si>
-    <t>上海能源</t>
-  </si>
-  <si>
-    <t>千红制药</t>
-  </si>
-  <si>
-    <t>儒竞科技</t>
-  </si>
-  <si>
-    <t>华测检测</t>
-  </si>
-  <si>
-    <t>奥普光电</t>
-  </si>
-  <si>
-    <t>南矿集团</t>
-  </si>
-  <si>
-    <t>亚辉龙</t>
-  </si>
-  <si>
-    <t>利源股份</t>
-  </si>
-  <si>
-    <t>东方铁塔</t>
-  </si>
-  <si>
-    <t>正强股份</t>
-  </si>
-  <si>
-    <t>宁波银行</t>
-  </si>
-  <si>
-    <t>西测测试</t>
-  </si>
-  <si>
-    <t>华利集团</t>
-  </si>
-  <si>
-    <t>新澳股份</t>
-  </si>
-  <si>
-    <t>锡业股份</t>
-  </si>
-  <si>
-    <t>今天国际</t>
-  </si>
-  <si>
-    <t>民和股份</t>
-  </si>
-  <si>
-    <t>运达股份</t>
-  </si>
-  <si>
-    <t>万马科技</t>
-  </si>
-  <si>
-    <t>欣锐科技</t>
-  </si>
-  <si>
-    <t>久之洋</t>
-  </si>
-  <si>
-    <t>科伦药业</t>
-  </si>
-  <si>
-    <t>精工钢构</t>
-  </si>
-  <si>
-    <t>海澜之家</t>
-  </si>
-  <si>
-    <t>瀚川智能</t>
-  </si>
-  <si>
-    <t>华虹公司</t>
-  </si>
-  <si>
-    <t>天和防务</t>
-  </si>
-  <si>
-    <t>沪硅产业</t>
-  </si>
-  <si>
-    <t>怡达股份</t>
-  </si>
-  <si>
-    <t>隧道股份</t>
-  </si>
-  <si>
-    <t>祥明智能</t>
-  </si>
-  <si>
-    <t>家联科技</t>
-  </si>
-  <si>
-    <t>万得凯</t>
-  </si>
-  <si>
-    <t>大商股份</t>
-  </si>
-  <si>
-    <t>南京高科</t>
-  </si>
-  <si>
-    <t>滨江集团</t>
-  </si>
-  <si>
-    <t>科美诊断</t>
-  </si>
-  <si>
-    <t>至纯科技</t>
-  </si>
-  <si>
-    <t>士兰微</t>
-  </si>
-  <si>
-    <t>安利股份</t>
-  </si>
-  <si>
-    <t>江苏神通</t>
-  </si>
-  <si>
-    <t>浙商中拓</t>
-  </si>
-  <si>
-    <t>创元科技</t>
-  </si>
-  <si>
-    <t>口子窖</t>
-  </si>
-  <si>
-    <t>图南股份</t>
-  </si>
-  <si>
-    <t>天成自控</t>
-  </si>
-  <si>
-    <t>国元证券</t>
-  </si>
-  <si>
-    <t>百龙创园</t>
-  </si>
-  <si>
-    <t>灵康药业</t>
-  </si>
-  <si>
-    <t>双元科技</t>
-  </si>
-  <si>
-    <t>科林电气</t>
-  </si>
-  <si>
-    <t>招商港口</t>
-  </si>
-  <si>
-    <t>电投能源</t>
-  </si>
-  <si>
-    <t>安克创新</t>
-  </si>
-  <si>
-    <t>确成股份</t>
-  </si>
-  <si>
-    <t>东方电子</t>
-  </si>
-  <si>
-    <t>悦安新材</t>
-  </si>
-  <si>
-    <t>奥浦迈</t>
-  </si>
-  <si>
-    <t>迈为股份</t>
-  </si>
-  <si>
-    <t>利群股份</t>
-  </si>
-  <si>
-    <t>荣盛发展</t>
-  </si>
-  <si>
-    <t>伟隆股份</t>
-  </si>
-  <si>
-    <t>中科环保</t>
-  </si>
-  <si>
-    <t>森源电气</t>
-  </si>
-  <si>
-    <t>莱茵生物</t>
-  </si>
-  <si>
-    <t>鹭燕医药</t>
-  </si>
-  <si>
-    <t>大连电瓷</t>
-  </si>
-  <si>
-    <t>富吉瑞</t>
+    <t>巨一科技</t>
+  </si>
+  <si>
+    <t>鑫科材料</t>
+  </si>
+  <si>
+    <t>四川路桥</t>
+  </si>
+  <si>
+    <t>新赛股份</t>
+  </si>
+  <si>
+    <t>世华科技</t>
+  </si>
+  <si>
+    <t>联泓新科</t>
+  </si>
+  <si>
+    <t>晶丰明源</t>
+  </si>
+  <si>
+    <t>捷邦科技</t>
+  </si>
+  <si>
+    <t>杭电股份</t>
+  </si>
+  <si>
+    <t>隆利科技</t>
+  </si>
+  <si>
+    <t>江苏新能</t>
+  </si>
+  <si>
+    <t>建研设计</t>
+  </si>
+  <si>
+    <t>实丰文化</t>
+  </si>
+  <si>
+    <t>盾安环境</t>
+  </si>
+  <si>
+    <t>振华股份</t>
+  </si>
+  <si>
+    <t>华阳集团</t>
+  </si>
+  <si>
+    <t>聚杰微纤</t>
+  </si>
+  <si>
+    <t>驰宏锌锗</t>
+  </si>
+  <si>
+    <t>五洲交通</t>
+  </si>
+  <si>
+    <t>泓博医药</t>
+  </si>
+  <si>
+    <t>畅联股份</t>
+  </si>
+  <si>
+    <t>创业环保</t>
+  </si>
+  <si>
+    <t>力合微</t>
+  </si>
+  <si>
+    <t>润欣科技</t>
+  </si>
+  <si>
+    <t>中色股份</t>
+  </si>
+  <si>
+    <t>国新能源</t>
+  </si>
+  <si>
+    <t>川能动力</t>
+  </si>
+  <si>
+    <t>北方股份</t>
+  </si>
+  <si>
+    <t>湘潭电化</t>
+  </si>
+  <si>
+    <t>东方钽业</t>
+  </si>
+  <si>
+    <t>澳弘电子</t>
+  </si>
+  <si>
+    <t>*ST民控</t>
+  </si>
+  <si>
+    <t>新海退</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1011,7 @@
         <v>104</v>
       </c>
       <c r="C2">
-        <v>0.5134655237197876</v>
+        <v>0.4989733695983887</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1025,7 +1025,7 @@
         <v>105</v>
       </c>
       <c r="C3">
-        <v>0.5113545656204224</v>
+        <v>0.4882597923278809</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1039,7 +1039,7 @@
         <v>106</v>
       </c>
       <c r="C4">
-        <v>0.5038799047470093</v>
+        <v>0.4841208457946777</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1053,7 +1053,7 @@
         <v>107</v>
       </c>
       <c r="C5">
-        <v>0.4974316656589508</v>
+        <v>0.4746600687503815</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1067,7 +1067,7 @@
         <v>108</v>
       </c>
       <c r="C6">
-        <v>0.4896498620510101</v>
+        <v>0.4744701385498047</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1081,7 +1081,7 @@
         <v>109</v>
       </c>
       <c r="C7">
-        <v>0.4864883422851562</v>
+        <v>0.4740948677062988</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1095,7 +1095,7 @@
         <v>110</v>
       </c>
       <c r="C8">
-        <v>0.4852380454540253</v>
+        <v>0.4684160053730011</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1109,7 +1109,7 @@
         <v>111</v>
       </c>
       <c r="C9">
-        <v>0.485020250082016</v>
+        <v>0.4660031497478485</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1123,7 +1123,7 @@
         <v>112</v>
       </c>
       <c r="C10">
-        <v>0.4732461869716644</v>
+        <v>0.4647821485996246</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1137,7 +1137,7 @@
         <v>113</v>
       </c>
       <c r="C11">
-        <v>0.4699693620204926</v>
+        <v>0.4597543179988861</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1151,7 +1151,7 @@
         <v>114</v>
       </c>
       <c r="C12">
-        <v>0.4699135720729828</v>
+        <v>0.45914626121521</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1165,7 +1165,7 @@
         <v>115</v>
       </c>
       <c r="C13">
-        <v>0.4650815427303314</v>
+        <v>0.4547367095947266</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1179,7 +1179,7 @@
         <v>116</v>
       </c>
       <c r="C14">
-        <v>0.4650674760341644</v>
+        <v>0.4532677233219147</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1193,7 +1193,7 @@
         <v>117</v>
       </c>
       <c r="C15">
-        <v>0.4625819623470306</v>
+        <v>0.4505137503147125</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1207,7 +1207,7 @@
         <v>118</v>
       </c>
       <c r="C16">
-        <v>0.4600969851016998</v>
+        <v>0.4487073719501495</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1221,7 +1221,7 @@
         <v>119</v>
       </c>
       <c r="C17">
-        <v>0.4600323140621185</v>
+        <v>0.447457879781723</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1235,7 +1235,7 @@
         <v>120</v>
       </c>
       <c r="C18">
-        <v>0.4559902846813202</v>
+        <v>0.4471572935581207</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1249,7 +1249,7 @@
         <v>121</v>
       </c>
       <c r="C19">
-        <v>0.455814927816391</v>
+        <v>0.445049911737442</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1263,7 +1263,7 @@
         <v>122</v>
       </c>
       <c r="C20">
-        <v>0.4548279345035553</v>
+        <v>0.444902628660202</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1277,7 +1277,7 @@
         <v>123</v>
       </c>
       <c r="C21">
-        <v>0.4542936384677887</v>
+        <v>0.4448435604572296</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1291,7 +1291,7 @@
         <v>124</v>
       </c>
       <c r="C22">
-        <v>0.4533804953098297</v>
+        <v>0.4439622461795807</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1305,7 +1305,7 @@
         <v>125</v>
       </c>
       <c r="C23">
-        <v>0.4488708078861237</v>
+        <v>0.4437565505504608</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1319,7 +1319,7 @@
         <v>126</v>
       </c>
       <c r="C24">
-        <v>0.4470753967761993</v>
+        <v>0.4430824220180511</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1333,7 +1333,7 @@
         <v>127</v>
       </c>
       <c r="C25">
-        <v>0.4464356005191803</v>
+        <v>0.4423388540744781</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1347,7 +1347,7 @@
         <v>128</v>
       </c>
       <c r="C26">
-        <v>0.4462818801403046</v>
+        <v>0.4422825276851654</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1361,7 +1361,7 @@
         <v>129</v>
       </c>
       <c r="C27">
-        <v>0.4461215436458588</v>
+        <v>0.44143345952034</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1375,7 +1375,7 @@
         <v>130</v>
       </c>
       <c r="C28">
-        <v>0.4457480609416962</v>
+        <v>0.4409225881099701</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1389,7 +1389,7 @@
         <v>131</v>
       </c>
       <c r="C29">
-        <v>0.4449512660503387</v>
+        <v>0.440857321023941</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1403,7 +1403,7 @@
         <v>132</v>
       </c>
       <c r="C30">
-        <v>0.4438525140285492</v>
+        <v>0.4403231143951416</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1417,7 +1417,7 @@
         <v>133</v>
       </c>
       <c r="C31">
-        <v>0.4433070719242096</v>
+        <v>0.4402656555175781</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1431,7 +1431,7 @@
         <v>134</v>
       </c>
       <c r="C32">
-        <v>0.4426775872707367</v>
+        <v>0.4399679601192474</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1445,7 +1445,7 @@
         <v>135</v>
       </c>
       <c r="C33">
-        <v>0.4422968327999115</v>
+        <v>0.4391267001628876</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1459,7 +1459,7 @@
         <v>136</v>
       </c>
       <c r="C34">
-        <v>0.4420883357524872</v>
+        <v>0.4384025037288666</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1473,7 +1473,7 @@
         <v>137</v>
       </c>
       <c r="C35">
-        <v>0.4414274394512177</v>
+        <v>0.4382249414920807</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1487,7 +1487,7 @@
         <v>138</v>
       </c>
       <c r="C36">
-        <v>0.440966933965683</v>
+        <v>0.437448263168335</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1501,7 +1501,7 @@
         <v>139</v>
       </c>
       <c r="C37">
-        <v>0.4405819475650787</v>
+        <v>0.4370692074298859</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1515,7 +1515,7 @@
         <v>140</v>
       </c>
       <c r="C38">
-        <v>0.4403065145015717</v>
+        <v>0.4369967877864838</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1529,7 +1529,7 @@
         <v>141</v>
       </c>
       <c r="C39">
-        <v>0.4401384294033051</v>
+        <v>0.4364809095859528</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1543,7 +1543,7 @@
         <v>142</v>
       </c>
       <c r="C40">
-        <v>0.4390586316585541</v>
+        <v>0.436223953962326</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1557,7 +1557,7 @@
         <v>143</v>
       </c>
       <c r="C41">
-        <v>0.4387013614177704</v>
+        <v>0.4352915287017822</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1571,7 +1571,7 @@
         <v>144</v>
       </c>
       <c r="C42">
-        <v>0.438507080078125</v>
+        <v>0.4349539577960968</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1585,7 +1585,7 @@
         <v>145</v>
       </c>
       <c r="C43">
-        <v>0.4385017454624176</v>
+        <v>0.4347170293331146</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1599,7 +1599,7 @@
         <v>146</v>
       </c>
       <c r="C44">
-        <v>0.4383603632450104</v>
+        <v>0.4345594346523285</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1613,7 +1613,7 @@
         <v>147</v>
       </c>
       <c r="C45">
-        <v>0.4380678236484528</v>
+        <v>0.4344740808010101</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1627,7 +1627,7 @@
         <v>148</v>
       </c>
       <c r="C46">
-        <v>0.4371337592601776</v>
+        <v>0.4344559609889984</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1641,7 +1641,7 @@
         <v>149</v>
       </c>
       <c r="C47">
-        <v>0.4366972744464874</v>
+        <v>0.4343322217464447</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1655,7 +1655,7 @@
         <v>150</v>
       </c>
       <c r="C48">
-        <v>0.4365080893039703</v>
+        <v>0.4342618882656097</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1669,7 +1669,7 @@
         <v>151</v>
       </c>
       <c r="C49">
-        <v>0.435396283864975</v>
+        <v>0.4337441027164459</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1683,7 +1683,7 @@
         <v>152</v>
       </c>
       <c r="C50">
-        <v>0.4348609745502472</v>
+        <v>0.4336043298244476</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1697,7 +1697,7 @@
         <v>153</v>
       </c>
       <c r="C51">
-        <v>0.4346955716609955</v>
+        <v>0.4328846037387848</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1711,7 +1711,7 @@
         <v>154</v>
       </c>
       <c r="C52">
-        <v>0.4338341653347015</v>
+        <v>0.4323159158229828</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1725,7 +1725,7 @@
         <v>155</v>
       </c>
       <c r="C53">
-        <v>0.4332407414913177</v>
+        <v>0.432085782289505</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1739,7 +1739,7 @@
         <v>156</v>
       </c>
       <c r="C54">
-        <v>0.4330430924892426</v>
+        <v>0.4319474399089813</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1753,7 +1753,7 @@
         <v>157</v>
       </c>
       <c r="C55">
-        <v>0.4330278933048248</v>
+        <v>0.4314633309841156</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1767,7 +1767,7 @@
         <v>158</v>
       </c>
       <c r="C56">
-        <v>0.4325462281703949</v>
+        <v>0.4311207234859467</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1781,7 +1781,7 @@
         <v>159</v>
       </c>
       <c r="C57">
-        <v>0.4325323104858398</v>
+        <v>0.431119441986084</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1795,7 +1795,7 @@
         <v>160</v>
       </c>
       <c r="C58">
-        <v>0.4321065247058868</v>
+        <v>0.4309563338756561</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1809,7 +1809,7 @@
         <v>161</v>
       </c>
       <c r="C59">
-        <v>0.4320573806762695</v>
+        <v>0.430871993303299</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1823,7 +1823,7 @@
         <v>162</v>
       </c>
       <c r="C60">
-        <v>0.4315358698368073</v>
+        <v>0.4306438267230988</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1837,7 +1837,7 @@
         <v>163</v>
       </c>
       <c r="C61">
-        <v>0.4312504231929779</v>
+        <v>0.4303197860717773</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -1851,7 +1851,7 @@
         <v>164</v>
       </c>
       <c r="C62">
-        <v>0.4311998188495636</v>
+        <v>0.4303082525730133</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -1865,7 +1865,7 @@
         <v>165</v>
       </c>
       <c r="C63">
-        <v>0.4307140409946442</v>
+        <v>0.4294750392436981</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -1879,7 +1879,7 @@
         <v>166</v>
       </c>
       <c r="C64">
-        <v>0.4303111135959625</v>
+        <v>0.4294048249721527</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -1893,7 +1893,7 @@
         <v>167</v>
       </c>
       <c r="C65">
-        <v>0.4301751554012299</v>
+        <v>0.4293199479579926</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -1907,7 +1907,7 @@
         <v>168</v>
       </c>
       <c r="C66">
-        <v>0.4299143254756927</v>
+        <v>0.4288282692432404</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -1921,7 +1921,7 @@
         <v>169</v>
       </c>
       <c r="C67">
-        <v>0.4296297132968903</v>
+        <v>0.4287379682064056</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -1935,7 +1935,7 @@
         <v>170</v>
       </c>
       <c r="C68">
-        <v>0.4295274913311005</v>
+        <v>0.4286055564880371</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -1949,7 +1949,7 @@
         <v>171</v>
       </c>
       <c r="C69">
-        <v>0.4293624460697174</v>
+        <v>0.4281096458435059</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -1963,7 +1963,7 @@
         <v>172</v>
       </c>
       <c r="C70">
-        <v>0.428900808095932</v>
+        <v>0.4276148974895477</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -1977,7 +1977,7 @@
         <v>173</v>
       </c>
       <c r="C71">
-        <v>0.4284470975399017</v>
+        <v>0.4273306429386139</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -1991,7 +1991,7 @@
         <v>174</v>
       </c>
       <c r="C72">
-        <v>0.4284417331218719</v>
+        <v>0.4269102513790131</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2005,7 +2005,7 @@
         <v>175</v>
       </c>
       <c r="C73">
-        <v>0.4281822144985199</v>
+        <v>0.4266775548458099</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2019,7 +2019,7 @@
         <v>176</v>
       </c>
       <c r="C74">
-        <v>0.4280499517917633</v>
+        <v>0.4265986979007721</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2033,7 +2033,7 @@
         <v>177</v>
       </c>
       <c r="C75">
-        <v>0.4275385439395905</v>
+        <v>0.4262547194957733</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2047,7 +2047,7 @@
         <v>178</v>
       </c>
       <c r="C76">
-        <v>0.4274669587612152</v>
+        <v>0.4256672561168671</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2061,7 +2061,7 @@
         <v>179</v>
       </c>
       <c r="C77">
-        <v>0.4273577630519867</v>
+        <v>0.4255720674991608</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2075,7 +2075,7 @@
         <v>180</v>
       </c>
       <c r="C78">
-        <v>0.427117258310318</v>
+        <v>0.4255311191082001</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2089,7 +2089,7 @@
         <v>181</v>
       </c>
       <c r="C79">
-        <v>0.4267875254154205</v>
+        <v>0.4255150258541107</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2103,7 +2103,7 @@
         <v>182</v>
       </c>
       <c r="C80">
-        <v>0.4267076551914215</v>
+        <v>0.4250234663486481</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2117,7 +2117,7 @@
         <v>183</v>
       </c>
       <c r="C81">
-        <v>0.4266389906406403</v>
+        <v>0.4249586760997772</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2131,7 +2131,7 @@
         <v>184</v>
       </c>
       <c r="C82">
-        <v>0.4265410006046295</v>
+        <v>0.4247678816318512</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2145,7 +2145,7 @@
         <v>185</v>
       </c>
       <c r="C83">
-        <v>0.4262464344501495</v>
+        <v>0.4246425628662109</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2159,7 +2159,7 @@
         <v>186</v>
       </c>
       <c r="C84">
-        <v>0.4257306158542633</v>
+        <v>0.4246375560760498</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2173,7 +2173,7 @@
         <v>187</v>
       </c>
       <c r="C85">
-        <v>0.4256441593170166</v>
+        <v>0.4246340692043304</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2187,7 +2187,7 @@
         <v>188</v>
       </c>
       <c r="C86">
-        <v>0.4255540668964386</v>
+        <v>0.4245870113372803</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2201,7 +2201,7 @@
         <v>189</v>
       </c>
       <c r="C87">
-        <v>0.4254885613918304</v>
+        <v>0.4243846833705902</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2215,7 +2215,7 @@
         <v>190</v>
       </c>
       <c r="C88">
-        <v>0.4249066412448883</v>
+        <v>0.4242682456970215</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2229,7 +2229,7 @@
         <v>191</v>
       </c>
       <c r="C89">
-        <v>0.4245151579380035</v>
+        <v>0.4242521822452545</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2243,7 +2243,7 @@
         <v>192</v>
       </c>
       <c r="C90">
-        <v>0.4245094358921051</v>
+        <v>0.4241591989994049</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2257,7 +2257,7 @@
         <v>193</v>
       </c>
       <c r="C91">
-        <v>0.4244509637355804</v>
+        <v>0.4240318834781647</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2271,7 +2271,7 @@
         <v>194</v>
       </c>
       <c r="C92">
-        <v>0.4239755570888519</v>
+        <v>0.4239417612552643</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2285,7 +2285,7 @@
         <v>195</v>
       </c>
       <c r="C93">
-        <v>0.4237953126430511</v>
+        <v>0.4239279329776764</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2299,7 +2299,7 @@
         <v>196</v>
       </c>
       <c r="C94">
-        <v>0.423670619726181</v>
+        <v>0.4239226281642914</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2313,7 +2313,7 @@
         <v>197</v>
       </c>
       <c r="C95">
-        <v>0.4236244261264801</v>
+        <v>0.423719197511673</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2327,7 +2327,7 @@
         <v>198</v>
       </c>
       <c r="C96">
-        <v>0.4233609139919281</v>
+        <v>0.42311692237854</v>
       </c>
       <c r="D96">
         <v>95</v>
@@ -2341,7 +2341,7 @@
         <v>199</v>
       </c>
       <c r="C97">
-        <v>0.4232467710971832</v>
+        <v>0.4229616820812225</v>
       </c>
       <c r="D97">
         <v>96</v>
@@ -2355,7 +2355,7 @@
         <v>200</v>
       </c>
       <c r="C98">
-        <v>0.4231221377849579</v>
+        <v>0.4225399792194366</v>
       </c>
       <c r="D98">
         <v>97</v>
@@ -2369,7 +2369,7 @@
         <v>201</v>
       </c>
       <c r="C99">
-        <v>0.4227584898471832</v>
+        <v>0.4223265647888184</v>
       </c>
       <c r="D99">
         <v>98</v>
@@ -2383,7 +2383,7 @@
         <v>202</v>
       </c>
       <c r="C100">
-        <v>0.422523021697998</v>
+        <v>0.4220238626003265</v>
       </c>
       <c r="D100">
         <v>99</v>
@@ -2397,7 +2397,7 @@
         <v>203</v>
       </c>
       <c r="C101">
-        <v>0.4221414625644684</v>
+        <v>0.4220238626003265</v>
       </c>
       <c r="D101">
         <v>100</v>
